--- a/testData/usergroup_test_data.xlsx
+++ b/testData/usergroup_test_data.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_edit_usergroup" sheetId="5" r:id="rId1"/>
-    <sheet name="up_down_usergroup" sheetId="7" r:id="rId2"/>
+    <sheet name="del_usergroup" sheetId="9" r:id="rId2"/>
     <sheet name="check_add_edit_usergroup" sheetId="10" r:id="rId3"/>
-    <sheet name="del_usergroup" sheetId="9" r:id="rId4"/>
+    <sheet name="up_down_usergroup" sheetId="7" r:id="rId4"/>
     <sheet name="usergroup_add_user" sheetId="11" r:id="rId5"/>
     <sheet name="query_usergroup" sheetId="12" r:id="rId6"/>
     <sheet name="usergroup_bulk_user" sheetId="13" r:id="rId7"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
   <si>
     <t>测试点说明</t>
   </si>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>修改成功！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_F04_S01_T01_checkout_005</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -231,6 +227,161 @@
   </si>
   <si>
     <t>test_F04_S01_T03_editUserGrp_002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上移zzfgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下移zljgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前用户组不可上移!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前用户组不可下移!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时不填写用户组名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑时不填写用户组名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户组名称大于32位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑用户组名称大于32位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑lzygroup用户组名称重复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加重复的zljgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要编辑的用户组名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除zljgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除lzygroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除zzfgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除jybgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认删除用户组zljgroup？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认删除用户组lzygroup？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认删除用户组zzfgroup？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认删除用户组jybgroup？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T03_delUserGrp_003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lzygroup用户组中添加用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户所属部门名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号/名称不填写任何东西</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号/名称框里填写特殊字符@#￥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号/名称框里填写xx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组删除用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组中批量删除用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T03_checkout_004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test_F04_S01_T03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_downUserGrp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_005</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -256,163 +407,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_007</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>test_F04_S01_T03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_downUserGrp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>_006</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>上移zzfgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下移zljgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前用户组不可上移!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前用户组不可下移!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加时不填写用户组名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑时不填写用户组名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加用户组名称大于32位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑用户组名称大于32位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑lzygroup用户组名称重复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加重复的zljgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>要编辑的用户组名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S01_T03_checkout_005</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除zljgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除lzygroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除zzfgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除jybgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认删除用户组zljgroup？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认删除用户组lzygroup？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认删除用户组zzfgroup？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认删除用户组jybgroup？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S01_T03_delUserGrp_003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lzygroup用户组中添加用户</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户所属部门名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号/名称不填写任何东西</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号/名称框里填写特殊字符@#￥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号/名称框里填写xx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组删除用户</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组中批量删除用户</t>
+    <t>test_F04_S01_T03_addUser_007</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T03_search_008</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_F04_S01_T03_bulkDelUser_009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T03_delUser_010</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +568,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,9 +606,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -904,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -913,7 +922,7 @@
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="42.375" customWidth="1"/>
   </cols>
@@ -929,13 +938,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -943,117 +952,117 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1065,19 +1074,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
@@ -1088,13 +1096,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1102,42 +1110,82 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>59</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1150,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1159,8 +1207,8 @@
     <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="36.375" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="36.625" customWidth="1"/>
   </cols>
@@ -1176,13 +1224,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -1190,186 +1238,186 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1384,18 +1432,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="33.125" customWidth="1"/>
-    <col min="3" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
@@ -1406,13 +1456,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1420,82 +1470,42 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1508,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1519,7 +1529,7 @@
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="24.75" customWidth="1"/>
     <col min="5" max="5" width="27.875" customWidth="1"/>
-    <col min="6" max="6" width="66.875" customWidth="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
@@ -1533,10 +1543,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1544,22 +1554,22 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1573,7 +1583,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1582,7 +1592,7 @@
     <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
@@ -1593,10 +1603,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1604,48 +1614,52 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1663,7 +1677,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1672,7 +1686,7 @@
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="38.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
@@ -1680,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1694,19 +1708,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1719,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1728,6 +1742,8 @@
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1736,16 +1752,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1753,22 +1769,22 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/testData/usergroup_test_data.xlsx
+++ b/testData/usergroup_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_edit_usergroup" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="83">
   <si>
     <t>测试点说明</t>
   </si>
@@ -198,30 +198,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>添加cqwgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑cqwgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>zljgroup</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lzygroup</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzfgroup</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jybgroup</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>test_F04_S01_T03_addUserGrp_001</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -230,14 +206,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>上移zzfgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下移zljgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>当前用户组不可上移!</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -262,58 +230,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>编辑lzygroup用户组名称重复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加重复的zljgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>要编辑的用户组名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>删除zljgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除lzygroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除zzfgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除jybgroup用户组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认删除用户组zljgroup？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认删除用户组lzygroup？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认删除用户组zzfgroup？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认删除用户组jybgroup？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>test_F04_S01_T03_delUserGrp_003</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>lzygroup用户组中添加用户</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>用户所属部门名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -332,10 +256,6 @@
   <si>
     <t>账号/名称框里填写xx</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>用户组删除用户</t>
@@ -426,6 +346,94 @@
   <si>
     <t>test_F04_S01_T03_delUser_010</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgroup</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加zgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgroup</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加lgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fgroup</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加fgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑fgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yjgroup</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认删除用户组cyygroup？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除cyygroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认删除用户组zgroup？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除zgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认删除用户组lgroup？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除lgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认删除用户组yjgroup？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除yjgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑cyygroup用户组名称重复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加重复的zgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下移zgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上移lgroup用户组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyygroup用户组中添加用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyb</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -913,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -975,7 +983,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
@@ -990,15 +998,15 @@
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
@@ -1013,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>32</v>
@@ -1021,7 +1029,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -1036,15 +1044,15 @@
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="8" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -1053,16 +1061,16 @@
         <v>15</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1085,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1110,82 +1118,82 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E2" s="6">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E3" s="6">
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6">
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1198,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1224,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -1238,7 +1246,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
@@ -1256,12 +1264,12 @@
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -1270,7 +1278,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -1279,7 +1287,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
@@ -1302,7 +1310,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
@@ -1316,7 +1324,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -1325,12 +1333,12 @@
         <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="8" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1345,15 +1353,15 @@
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="8" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>10</v>
@@ -1362,21 +1370,21 @@
         <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>22</v>
@@ -1394,12 +1402,12 @@
         <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>22</v>
@@ -1408,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -1417,7 +1425,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1443,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1470,42 +1478,42 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E3" s="6">
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1518,13 +1526,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="24.75" customWidth="1"/>
@@ -1546,7 +1554,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1554,7 +1562,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>25</v>
@@ -1563,13 +1571,13 @@
         <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1591,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1606,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1614,22 +1622,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="12" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -1641,12 +1649,12 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="12" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>15</v>
@@ -1655,10 +1663,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1677,7 +1685,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1708,7 +1716,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>29</v>
@@ -1717,10 +1725,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1742,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1761,7 +1769,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1769,7 +1777,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>29</v>
@@ -1778,13 +1786,13 @@
         <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
